--- a/results/Results.xlsx
+++ b/results/Results.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27907"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eb452\Desktop\WorkSpace\choice-reaction-time-task\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ehsan/Desktop/WorkSpace/choice-reaction-time/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23520" windowHeight="12480"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25840" windowHeight="19200"/>
   </bookViews>
   <sheets>
     <sheet name="Human Data" sheetId="1" r:id="rId1"/>
     <sheet name="Madel Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -45,7 +51,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -55,15 +61,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -71,15 +83,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -95,6 +123,2705 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CHOICE</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> REACTION TIME</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>8-HOUR SHIFT</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="plus"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Human Data'!$C$7:$C$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="19"/>
+                  <c:pt idx="0">
+                    <c:v>0.082</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.082</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.079</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.087</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.093</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.087</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.102</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.109</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.088</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.08</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.095</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.088</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0.097</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0.098</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0.088</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Human Data'!$A$7:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Human Data'!$B$7:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.431</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.438</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.426</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.442</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.445</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.434</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.479</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.469</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.457</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.463</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.475</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.466</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.461</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.491</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.494</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>10-HOUR SHIFT</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="minus"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Human Data'!$F$7:$F$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="15"/>
+                  <c:pt idx="0">
+                    <c:v>0.052</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.064</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.048</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.068</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.061</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.062</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.078</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.086</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.075</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.077</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.08</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.062</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>'Human Data'!$E$7:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.413</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.424</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.412</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.425</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.419</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.442</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.448</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.443</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.446</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.446</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1754630288"/>
+        <c:axId val="1754632672"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1754630288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>TIME</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> POINTS</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1754632672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1754632672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.6"/>
+          <c:min val="0.3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>REACTION</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> TIMES (msec)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1754630288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.854387527839644"/>
+          <c:y val="0.19505985436031"/>
+          <c:w val="0.145612472160356"/>
+          <c:h val="0.113534545023977"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CHOICE REACTION TIME</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>8-HOUR SHIFT</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="plus"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Human Data'!$L$7:$L$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="19"/>
+                  <c:pt idx="0">
+                    <c:v>3.2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.9</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.8</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.5</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2.2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2.8</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2.3</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>3.5</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>3.0</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>5.2</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2.8</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2.1</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>9.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Human Data'!$J$7:$J$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Human Data'!$K$7:$K$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>3.73</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.74</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.52</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.29</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.02</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.99</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.26</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.01</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>10-HOUR SHIFT</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Human Data'!$O$7:$O$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="15"/>
+                  <c:pt idx="0">
+                    <c:v>2.3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.9</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.8</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>3.0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>3.0</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1.9</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2.1</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>4.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>'Human Data'!$N$7:$N$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2.31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.69</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.69</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.01</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.51</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.52</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.95</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1756713664"/>
+        <c:axId val="1812229712"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1756713664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>TIME POINTS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1812229712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1812229712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="16.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>NO.</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> ERROR</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1756713664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -397,12 +3124,12 @@
   <dimension ref="A3:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -418,33 +3145,37 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K6" t="s">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N6" t="s">
+      <c r="M6" s="2"/>
+      <c r="N6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -452,13 +3183,13 @@
         <v>0.43099999999999999</v>
       </c>
       <c r="C7">
-        <v>0.82</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E7">
         <v>0.41299999999999998</v>
       </c>
       <c r="F7">
-        <v>0.52</v>
+        <v>5.2000000000000005E-2</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -476,7 +3207,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -484,13 +3215,13 @@
         <v>0.438</v>
       </c>
       <c r="C8">
-        <v>0.82</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E8">
         <v>0.42399999999999999</v>
       </c>
       <c r="F8">
-        <v>0.64</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="J8">
         <v>2</v>
@@ -508,7 +3239,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3</v>
       </c>
@@ -516,13 +3247,13 @@
         <v>0.42599999999999999</v>
       </c>
       <c r="C9">
-        <v>0.79</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="E9">
         <v>0.41199999999999998</v>
       </c>
       <c r="F9">
-        <v>0.48</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="J9">
         <v>3</v>
@@ -540,7 +3271,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -548,13 +3279,13 @@
         <v>0.442</v>
       </c>
       <c r="C11">
-        <v>0.87</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="E11">
         <v>0.42499999999999999</v>
       </c>
       <c r="F11">
-        <v>0.68</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -572,7 +3303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -580,13 +3311,13 @@
         <v>0.44500000000000001</v>
       </c>
       <c r="C12">
-        <v>0.93</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E12">
         <v>0.41899999999999998</v>
       </c>
       <c r="F12">
-        <v>0.61</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="J12">
         <v>2</v>
@@ -604,7 +3335,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -612,13 +3343,13 @@
         <v>0.434</v>
       </c>
       <c r="C13">
-        <v>0.87</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="E13">
         <v>0.41</v>
       </c>
       <c r="F13">
-        <v>0.62</v>
+        <v>6.2E-2</v>
       </c>
       <c r="J13">
         <v>3</v>
@@ -636,7 +3367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -644,13 +3375,13 @@
         <v>0.47899999999999998</v>
       </c>
       <c r="C15">
-        <v>1.02</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="E15">
         <v>0.442</v>
       </c>
       <c r="F15">
-        <v>0.78</v>
+        <v>7.8000000000000014E-2</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -668,7 +3399,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
@@ -676,13 +3407,13 @@
         <v>0.46899999999999997</v>
       </c>
       <c r="C16">
-        <v>1.0900000000000001</v>
+        <v>0.109</v>
       </c>
       <c r="E16">
         <v>0.44800000000000001</v>
       </c>
       <c r="F16">
-        <v>0.86</v>
+        <v>8.6000000000000007E-2</v>
       </c>
       <c r="J16">
         <v>2</v>
@@ -700,7 +3431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -708,13 +3439,13 @@
         <v>0.45700000000000002</v>
       </c>
       <c r="C17">
-        <v>0.88</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="E17">
         <v>0.443</v>
       </c>
       <c r="F17">
-        <v>0.75</v>
+        <v>7.5000000000000011E-2</v>
       </c>
       <c r="J17">
         <v>3</v>
@@ -732,7 +3463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -740,13 +3471,13 @@
         <v>0.46300000000000002</v>
       </c>
       <c r="C19">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="E19">
         <v>0.44600000000000001</v>
       </c>
       <c r="F19">
-        <v>0.77</v>
+        <v>7.7000000000000013E-2</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -764,7 +3495,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2</v>
       </c>
@@ -772,13 +3503,13 @@
         <v>0.47499999999999998</v>
       </c>
       <c r="C20">
-        <v>0.95</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="E20">
         <v>0.44600000000000001</v>
       </c>
       <c r="F20">
-        <v>0.8</v>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="J20">
         <v>2</v>
@@ -796,7 +3527,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
@@ -804,13 +3535,13 @@
         <v>0.46600000000000003</v>
       </c>
       <c r="C21">
-        <v>0.88</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="E21">
         <v>0.42</v>
       </c>
       <c r="F21">
-        <v>0.62</v>
+        <v>6.2E-2</v>
       </c>
       <c r="J21">
         <v>3</v>
@@ -828,7 +3559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1</v>
       </c>
@@ -836,7 +3567,7 @@
         <v>0.46100000000000002</v>
       </c>
       <c r="C23">
-        <v>0.97</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -848,7 +3579,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -856,7 +3587,7 @@
         <v>0.49099999999999999</v>
       </c>
       <c r="C24">
-        <v>0.98</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="J24">
         <v>2</v>
@@ -868,7 +3599,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3</v>
       </c>
@@ -876,7 +3607,7 @@
         <v>0.49399999999999999</v>
       </c>
       <c r="C25">
-        <v>0.88</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -894,6 +3625,8 @@
     <mergeCell ref="J3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -903,7 +3636,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
